--- a/biology/Médecine/Marius_Romme/Marius_Romme.xlsx
+++ b/biology/Médecine/Marius_Romme/Marius_Romme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marius Anton Joannes Romme, né le 17 janvier 1934 à Amsterdam, est un psychiatre néerlandais.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est célèbre pour son travail sur l’entente de voix[1] (hallucinations auditives) et reconnu pour être le fondateur et principal théoricien du mouvement des entendeurs de voix dès 1987. Il a également développé le « Experience Focused Counselling » avec le Dr Sandra Escher et Joachim Schnackenberg.
-Marius Romme a étudié la médecine à l’université d'Amsterdam et a reçu son diplôme en 1967. De 1974 à 1999, il a été professeur de psychiatrie sociale à la faculté médicale de l’université de Maastricht tout comme consultant psychiatre au centre communautaire de santé mentale à Maastricht. Il est aujourd’hui invité comme professeur au centre de la santé mentale de l’Université de Birmingham en Grande-Bretagne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est célèbre pour son travail sur l’entente de voix (hallucinations auditives) et reconnu pour être le fondateur et principal théoricien du mouvement des entendeurs de voix dès 1987. Il a également développé le « Experience Focused Counselling » avec le Dr Sandra Escher et Joachim Schnackenberg.
+Marius Romme a étudié la médecine à l’université d'Amsterdam et a reçu son diplôme en 1967. De 1974 à 1999, il a été professeur de psychiatrie sociale à la faculté médicale de l’université de Maastricht tout comme consultant psychiatre au centre communautaire de santé mentale à Maastricht. Il est aujourd’hui invité comme professeur au centre de la santé mentale de l’Université de Birmingham en Grande-Bretagne.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Articles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Psychiatrie sociale, par François Ferrero et Patrice Guex. Revue médicale suisse, septembre 2009.</t>
         </is>
